--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingg\Desktop\wanzhou_schoolfee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linggege/Projects.localized/Pythondemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60822300-8C19-43A9-9F78-0D5BF7A67530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC103130-E591-5845-8AA6-B64314FA900F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="0" windowWidth="15075" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4820" yWindow="460" windowWidth="15080" windowHeight="9820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>万州学校缴费往来资金交易明细</t>
   </si>
@@ -73,19 +73,6 @@
   </si>
   <si>
     <t>缴费金额（单位元）</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <t>重庆市万州上海中学</t>
-  </si>
-  <si>
-    <t>高中代收课本费</t>
-  </si>
-  <si>
-    <t>2020-1-21至2020-1-25</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -93,10 +80,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-m\-d;@"/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-m\-d;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="等线"/>
@@ -275,18 +262,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="7" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -304,29 +291,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,21 +611,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -666,7 +635,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -682,7 +651,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -698,23 +667,19 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10">
-        <v>43856</v>
-      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -726,34 +691,6 @@
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1344</v>
-      </c>
-      <c r="D6" s="14">
-        <v>241920</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="16">
-        <f>SUM(C6:C6)</f>
-        <v>1344</v>
-      </c>
-      <c r="D7" s="17">
-        <f>SUM(D6:D6)</f>
-        <v>241920</v>
       </c>
     </row>
   </sheetData>
@@ -762,6 +699,6 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.69991251615088756" right="0.69991251615088756" top="0.74990626395218019" bottom="0.74990626395218019" header="0.29996251027415122" footer="0.29996251027415122"/>
-  <pageSetup paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linggege/Projects.localized/Pythondemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC103130-E591-5845-8AA6-B64314FA900F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C92DE1C-F863-D645-9603-8C6E5D84614A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="460" windowWidth="15080" windowHeight="9820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9540" yWindow="540" windowWidth="15080" windowHeight="9820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,15 +614,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
